--- a/x64/Release/testweight .xlsx
+++ b/x64/Release/testweight .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21690" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21690" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="gaussian&amp;linear" sheetId="1" r:id="rId1"/>
@@ -2108,8 +2108,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437896344"/>
-        <c:axId val="437896736"/>
+        <c:axId val="413211048"/>
+        <c:axId val="413211440"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -2942,7 +2942,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437896344"/>
+        <c:axId val="413211048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="128"/>
@@ -3050,12 +3050,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437896736"/>
+        <c:crossAx val="413211440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437896736"/>
+        <c:axId val="413211440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3099,7 +3099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437896344"/>
+        <c:crossAx val="413211048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4898,8 +4898,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437897520"/>
-        <c:axId val="437897912"/>
+        <c:axId val="413212224"/>
+        <c:axId val="413212616"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -5732,7 +5732,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437897520"/>
+        <c:axId val="413212224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="128"/>
@@ -5840,12 +5840,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437897912"/>
+        <c:crossAx val="413212616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437897912"/>
+        <c:axId val="413212616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -5890,7 +5890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437897520"/>
+        <c:crossAx val="413212224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7135,8 +7135,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437899872"/>
-        <c:axId val="437900264"/>
+        <c:axId val="413213400"/>
+        <c:axId val="413213792"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -7441,7 +7441,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437899872"/>
+        <c:axId val="413213400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0000000000000013E-4"/>
@@ -7500,12 +7500,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437900264"/>
+        <c:crossAx val="413213792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437900264"/>
+        <c:axId val="413213792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -7563,7 +7563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437899872"/>
+        <c:crossAx val="413213400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9664,12 +9664,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437901048"/>
-        <c:axId val="437901440"/>
+        <c:axId val="414909616"/>
+        <c:axId val="414910008"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437901048"/>
+        <c:axId val="414909616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9726,12 +9726,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437901440"/>
+        <c:crossAx val="414910008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437901440"/>
+        <c:axId val="414910008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9788,7 +9788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437901048"/>
+        <c:crossAx val="414909616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10749,11 +10749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437902224"/>
-        <c:axId val="437902616"/>
+        <c:axId val="414910792"/>
+        <c:axId val="414911184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437902224"/>
+        <c:axId val="414910792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10810,12 +10810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437902616"/>
+        <c:crossAx val="414911184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437902616"/>
+        <c:axId val="414911184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10872,7 +10872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437902224"/>
+        <c:crossAx val="414910792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11806,12 +11806,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437903400"/>
-        <c:axId val="437903792"/>
+        <c:axId val="414911968"/>
+        <c:axId val="414912360"/>
         <c:extLst/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437903400"/>
+        <c:axId val="414911968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11868,12 +11868,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437903792"/>
+        <c:crossAx val="414912360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437903792"/>
+        <c:axId val="414912360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -11931,7 +11931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437903400"/>
+        <c:crossAx val="414911968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11945,7 +11945,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -15412,6 +15411,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12639675" y="581025"/>
+          <a:ext cx="2857500" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="3048000"/>
+          <a:ext cx="2857500" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17269,8 +17344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22168,7 +22243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
